--- a/Venus_GJ/docs/project升级信息.xlsx
+++ b/Venus_GJ/docs/project升级信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>升级人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高永磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.数据库功能接口添加。2.增加AppManager_applyPatchToOldApk接口。3.修改线程退出。4.解决后台运行过程中被系统关闭引起的黑屏问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,11 +95,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013年5月8日9:17:27</t>
+    <t>2013年5月7日15:39:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.合并手机视频3.4换页特效top-float效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月8日10:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.增加联系人搜索接口。2.sqlite3插件使用：libsqlcipher_android.so，libstlport_shared.so。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月13日19:14:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通讯录模块增加GetContactsGroup()和
+GetEachContactsGroupInfo(groupId)方法。2.修复图片旋转与裁剪的bug。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月18日12:20:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1增加通讯录AddContact、DeleteContact和EditContact接口。2.修复label控件在动态调整rect时缺省字符输出问题。3.新增获取网络类型接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加libsafetyauthentic2.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月20日13:53:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月21日20:17:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加sangforvpn加密插件。2.增加OpenSettingForType接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android.sln.3.2.0文件夹version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优化联系人接口（去除多余log；优化getEachContactsGroupInfo）查询效率.2.更新libs下的libauth_forward.so和libSATknP11.so</t>
+  </si>
+  <si>
+    <t>1.优化联系人getContactsHighSDK接口，返回给业务的联系人格式为：name1 phone1 全拼1 name2 phone2 全拼2</t>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2013年5月24日13:56:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2013年5月27日14:50:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月28日10:24:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Panorama:setCurItem添加bAnimate参数，boolean, 可选参数，是否显示切换动画，不设置时默认为true。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年5月30日9:07:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.为 image editor 控件提供改变裁剪框大小时，裁剪框比例不变的支持
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月5日14:40:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.上传模块添加标准协议支持。2.实现showPois函数，支持地图描点。3.增加Ottupnp插件。4.完善Auth插件退订接口。5.避免android的触屏id异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月8日9:32:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.地图插件问题修复。2.解决“edit-box 对文字的不能连续拖动”的问题。3.更新Ottupnp插件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +296,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -486,59 +644,60 @@
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:22" ht="27">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,6 +706,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="27">
@@ -605,25 +767,167 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="67.5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="27">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="54">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="54">
+      <c r="A11" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="67.5">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="67.5">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="27">
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="40.5">
+      <c r="A15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="81">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="67.5">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54">
+      <c r="A18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54">
+      <c r="A19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="67.5">
+      <c r="A20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54">
+      <c r="A21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Venus_GJ/docs/project升级信息.xlsx
+++ b/Venus_GJ/docs/project升级信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>升级人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>1.地图插件问题修复。2.解决“edit-box 对文字的不能连续拖动”的问题。3.更新Ottupnp插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月9日9:09:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.地图插件问题修复。2.优化图片解码。3.优化panorama_navigation控件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -648,54 +663,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
     </row>
     <row r="3" spans="1:22" ht="27">
       <c r="A3" s="1" t="s">
@@ -928,6 +943,20 @@
       </c>
       <c r="D21">
         <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5">
+      <c r="A22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
